--- a/ResultadoEleicoesDistritos/ÉVORA_ARRAIOLOS.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_ARRAIOLOS.xlsx
@@ -597,64 +597,64 @@
         <v>1746</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J2" t="n">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="T2" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
